--- a/cost.xlsx
+++ b/cost.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZEDD-VALORANT-SWORD-thingy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7494E899-20A7-4529-883A-8FB2C5E4B9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24482E7B-1E76-42DF-81EE-5E56CB7F3287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Estimated</t>
-  </si>
-  <si>
     <t>My Cost</t>
   </si>
   <si>
@@ -37,6 +34,9 @@
   </si>
   <si>
     <t>Arduino Nano (3 pack price / 3)</t>
+  </si>
+  <si>
+    <t>Estimated Cost</t>
   </si>
 </sst>
 </file>
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E4"/>
+  <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,15 +404,15 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>11.92</v>
@@ -420,11 +420,41 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
         <v>19.989999999999998</v>
       </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZEDD-VALORANT-SWORD-thingy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24482E7B-1E76-42DF-81EE-5E56CB7F3287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F905FB-14E8-4BB0-BFD1-AA1BE386227A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>My Cost</t>
   </si>
@@ -37,6 +46,24 @@
   </si>
   <si>
     <t>Estimated Cost</t>
+  </si>
+  <si>
+    <t>idk, just any battery or battery pack</t>
+  </si>
+  <si>
+    <t>Elegoo Battery pack I had lying around</t>
+  </si>
+  <si>
+    <t>already have an arduino nano</t>
+  </si>
+  <si>
+    <t>I got fillment to use</t>
+  </si>
+  <si>
+    <t>acrylic (dimensions)</t>
+  </si>
+  <si>
+    <t>3d printing (dimensions)</t>
   </si>
 </sst>
 </file>
@@ -387,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E14"/>
+  <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +429,7 @@
     <col min="5" max="5" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -410,58 +437,108 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>11.92</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>11.92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3">
         <v>19.989999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="RGB LED Strip" xr:uid="{D606DD59-B43F-4003-943F-0B3E1B2304B8}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{4C179121-A7B1-4CB4-A253-CFA26FC58584}"/>
+    <hyperlink ref="E3" r:id="rId3" display="RGB LED Strip" xr:uid="{87CCEEBC-EDEA-4273-98D4-A4F001E8E1E7}"/>
+    <hyperlink ref="E4" r:id="rId4" display="Arduino Nano (3 pack price / 3)" xr:uid="{B6A667F3-12A0-484B-B47C-DA921FC34DD8}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{053DB821-E068-4EBF-AC03-879772E53BF0}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{D54EF0F7-FA7A-4EA6-9D58-DB81FC5EB304}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZEDD-VALORANT-SWORD-thingy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F905FB-14E8-4BB0-BFD1-AA1BE386227A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A7C2CD-75BE-4247-8B7D-9A96367587BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={2CDE34C8-BA9E-46B6-BD57-4968B0C3BB9C}</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{2CDE34C8-BA9E-46B6-BD57-4968B0C3BB9C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    could even use a dollarama power bank</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
@@ -73,7 +91,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +121,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,6 +173,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Jahangir Abdullayev" id="{FB0ED26D-D91C-4ABD-86A9-2D945EA8C290}" userId="2627344c419a245c" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,12 +442,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B5" dT="2021-11-10T02:23:04.90" personId="{FB0ED26D-D91C-4ABD-86A9-2D945EA8C290}" id="{2CDE34C8-BA9E-46B6-BD57-4968B0C3BB9C}">
+    <text>could even use a dollarama power bank</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,5 +578,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZEDD-VALORANT-SWORD-thingy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A7C2CD-75BE-4247-8B7D-9A96367587BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF6DC43-412F-466A-BD38-A3B9BFF49E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,6 +37,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={2CDE34C8-BA9E-46B6-BD57-4968B0C3BB9C}</author>
+    <author>tc={3A1747D9-1936-4296-8345-CEBDB01905C0}</author>
   </authors>
   <commentList>
     <comment ref="B5" authorId="0" shapeId="0" xr:uid="{2CDE34C8-BA9E-46B6-BD57-4968B0C3BB9C}">
@@ -47,12 +48,20 @@
     could even use a dollarama power bank</t>
       </text>
     </comment>
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{3A1747D9-1936-4296-8345-CEBDB01905C0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    im just making up prices, i bought a kit for this and future projects</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>My Cost</t>
   </si>
@@ -82,6 +91,24 @@
   </si>
   <si>
     <t>3d printing (dimensions)</t>
+  </si>
+  <si>
+    <t>x5 M3 25mm screws</t>
+  </si>
+  <si>
+    <t>x1 M3 10mm screw</t>
+  </si>
+  <si>
+    <t>i just bought a M3 kit because I needed screws</t>
+  </si>
+  <si>
+    <t>estimated cost totatl +tax</t>
+  </si>
+  <si>
+    <t>my cost totatl +tax</t>
+  </si>
+  <si>
+    <t>tbd</t>
   </si>
 </sst>
 </file>
@@ -137,12 +164,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -151,11 +187,14 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -447,6 +486,9 @@
   <threadedComment ref="B5" dT="2021-11-10T02:23:04.90" personId="{FB0ED26D-D91C-4ABD-86A9-2D945EA8C290}" id="{2CDE34C8-BA9E-46B6-BD57-4968B0C3BB9C}">
     <text>could even use a dollarama power bank</text>
   </threadedComment>
+  <threadedComment ref="C6" dT="2021-11-12T01:02:07.04" personId="{FB0ED26D-D91C-4ABD-86A9-2D945EA8C290}" id="{3A1747D9-1936-4296-8345-CEBDB01905C0}">
+    <text>im just making up prices, i bought a kit for this and future projects</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -455,16 +497,17 @@
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -494,7 +537,8 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>19.989999999999998</v>
+        <f>19.99/3</f>
+        <v>6.6633333333333331</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
@@ -519,34 +563,56 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3">
+        <v>26.39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="E7" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
@@ -556,28 +622,47 @@
       <c r="C11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-      <c r="F12" s="3"/>
+    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <f>SUM(C3:C12)*1.13</f>
+        <v>42.469166666666659</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3">
+        <f>SUM(F3:F12)*1.13</f>
+        <v>43.290300000000002</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E6:E7"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="RGB LED Strip" xr:uid="{D606DD59-B43F-4003-943F-0B3E1B2304B8}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{4C179121-A7B1-4CB4-A253-CFA26FC58584}"/>
     <hyperlink ref="E3" r:id="rId3" display="RGB LED Strip" xr:uid="{87CCEEBC-EDEA-4273-98D4-A4F001E8E1E7}"/>
     <hyperlink ref="E4" r:id="rId4" display="Arduino Nano (3 pack price / 3)" xr:uid="{B6A667F3-12A0-484B-B47C-DA921FC34DD8}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{053DB821-E068-4EBF-AC03-879772E53BF0}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{D54EF0F7-FA7A-4EA6-9D58-DB81FC5EB304}"/>
+    <hyperlink ref="B6:B7" r:id="rId5" display="x5 M3 25mm screws" xr:uid="{C64A6970-E21B-41A4-A653-FDB12EEE8F4C}"/>
+    <hyperlink ref="E6:E7" r:id="rId6" display="i just bought a M3 kit because I needed screws" xr:uid="{F8DB2EE8-E084-4824-B544-DEED13BF5823}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{D54EF0F7-FA7A-4EA6-9D58-DB81FC5EB304}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{053DB821-E068-4EBF-AC03-879772E53BF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
 </worksheet>
 </file>
--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZEDD-VALORANT-SWORD-thingy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF6DC43-412F-466A-BD38-A3B9BFF49E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38141364-4872-4C19-BBD8-37C932836436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,6 +38,7 @@
   <authors>
     <author>tc={2CDE34C8-BA9E-46B6-BD57-4968B0C3BB9C}</author>
     <author>tc={3A1747D9-1936-4296-8345-CEBDB01905C0}</author>
+    <author>tc={98AF59B2-99CE-45A3-94B6-472C6ECF45E3}</author>
   </authors>
   <commentList>
     <comment ref="B5" authorId="0" shapeId="0" xr:uid="{2CDE34C8-BA9E-46B6-BD57-4968B0C3BB9C}">
@@ -56,12 +57,20 @@
     im just making up prices, i bought a kit for this and future projects</t>
       </text>
     </comment>
+    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{98AF59B2-99CE-45A3-94B6-472C6ECF45E3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    imma estimate 20$/kg</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>My Cost</t>
   </si>
@@ -90,9 +99,6 @@
     <t>acrylic (dimensions)</t>
   </si>
   <si>
-    <t>3d printing (dimensions)</t>
-  </si>
-  <si>
     <t>x5 M3 25mm screws</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
   </si>
   <si>
     <t>tbd</t>
+  </si>
+  <si>
+    <t>3d printing (106g+106g+10g)</t>
   </si>
 </sst>
 </file>
@@ -192,9 +201,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -489,6 +498,9 @@
   <threadedComment ref="C6" dT="2021-11-12T01:02:07.04" personId="{FB0ED26D-D91C-4ABD-86A9-2D945EA8C290}" id="{3A1747D9-1936-4296-8345-CEBDB01905C0}">
     <text>im just making up prices, i bought a kit for this and future projects</text>
   </threadedComment>
+  <threadedComment ref="C8" dT="2021-11-20T21:16:16.65" personId="{FB0ED26D-D91C-4ABD-86A9-2D945EA8C290}" id="{98AF59B2-99CE-45A3-94B6-472C6ECF45E3}">
+    <text>imma estimate 20$/kg</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -497,7 +509,7 @@
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,34 +576,35 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="3">
         <v>26.39</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="C8" s="3">
+        <f>(0.106*2+0.01)*20</f>
+        <v>4.4400000000000004</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -605,13 +618,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -623,21 +636,21 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3">
         <f>SUM(C3:C12)*1.13</f>
-        <v>42.469166666666659</v>
+        <v>47.486366666666655</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="3">
         <f>SUM(F3:F12)*1.13</f>
